--- a/sat_results.xlsx
+++ b/sat_results.xlsx
@@ -1,26 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University_materials\KLTN\SolvingTCPC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519C7896-8A03-43C7-B66F-3F85F4530F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8BE2EC-4C70-40C1-BFBB-8DEDACCE4AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="fully" sheetId="1" r:id="rId1"/>
+    <sheet name="max" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="28">
   <si>
     <t>num_students</t>
   </si>
@@ -40,14 +54,77 @@
     <t>SAT</t>
   </si>
   <si>
+    <t>filename</t>
+  </si>
+  <si>
+    <t>avg_time</t>
+  </si>
+  <si>
+    <t>solution_found</t>
+  </si>
+  <si>
+    <t>max_num_7.txt</t>
+  </si>
+  <si>
     <t>UNSAT</t>
+  </si>
+  <si>
+    <t>max_num_14.txt</t>
+  </si>
+  <si>
+    <t>max_num_21.txt</t>
+  </si>
+  <si>
+    <t>max_num_28.txt</t>
+  </si>
+  <si>
+    <t>max_num_35.txt</t>
+  </si>
+  <si>
+    <t>max_num_42.txt</t>
+  </si>
+  <si>
+    <t>max_num_49.txt</t>
+  </si>
+  <si>
+    <t>max_num_56.txt</t>
+  </si>
+  <si>
+    <t>max_num_63.txt</t>
+  </si>
+  <si>
+    <t>max_num_70.txt</t>
+  </si>
+  <si>
+    <t>max_num_77.txt</t>
+  </si>
+  <si>
+    <t>max_num_84.txt</t>
+  </si>
+  <si>
+    <t>max_num_91.txt</t>
+  </si>
+  <si>
+    <t>max_num_98.txt</t>
+  </si>
+  <si>
+    <t>max_num_119.txt</t>
+  </si>
+  <si>
+    <t>max_num_126.txt</t>
+  </si>
+  <si>
+    <t>max_num_105.txt</t>
+  </si>
+  <si>
+    <t>max_num_112.txt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,6 +136,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -403,348 +486,827 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="E2" sqref="E2:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="str">
+        <f>CONCATENATE("fully_num_", (ROW(A1)-1)*7 + 7, ".txt")</f>
+        <v>fully_num_7.txt</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>63</v>
+      </c>
+      <c r="D2">
+        <v>251</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="str">
+        <f t="shared" ref="A3:A19" si="0">CONCATENATE("fully_num_", (ROW(A2)-1)*7 + 7, ".txt")</f>
+        <v>fully_num_14.txt</v>
+      </c>
+      <c r="B3">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>469</v>
+      </c>
+      <c r="D3">
+        <v>1905</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
+        <v>fully_num_21.txt</v>
+      </c>
+      <c r="B4">
+        <v>21</v>
+      </c>
+      <c r="C4">
+        <v>1561</v>
+      </c>
+      <c r="D4">
+        <v>6326</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>fully_num_28.txt</v>
+      </c>
+      <c r="B5">
+        <v>28</v>
+      </c>
+      <c r="C5">
+        <v>3682</v>
+      </c>
+      <c r="D5">
+        <v>14889</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>fully_num_35.txt</v>
+      </c>
+      <c r="B6">
+        <v>35</v>
+      </c>
+      <c r="C6">
+        <v>7175</v>
+      </c>
+      <c r="D6">
+        <v>28907</v>
+      </c>
+      <c r="E6">
+        <v>1.563715934753418E-2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v>fully_num_42.txt</v>
+      </c>
+      <c r="B7">
+        <v>42</v>
+      </c>
+      <c r="C7">
+        <v>12383</v>
+      </c>
+      <c r="D7">
+        <v>49900</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
+        <v>fully_num_49.txt</v>
+      </c>
+      <c r="B8">
+        <v>49</v>
+      </c>
+      <c r="C8">
+        <v>19649</v>
+      </c>
+      <c r="D8">
+        <v>79066</v>
+      </c>
+      <c r="E8">
+        <v>1.555228233337402E-2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
+        <f t="shared" si="0"/>
+        <v>fully_num_56.txt</v>
+      </c>
+      <c r="B9">
+        <v>56</v>
+      </c>
+      <c r="C9">
+        <v>29316</v>
+      </c>
+      <c r="D9">
+        <v>117756</v>
+      </c>
+      <c r="E9">
+        <v>1.5642404556274411E-2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
+        <f t="shared" si="0"/>
+        <v>fully_num_63.txt</v>
+      </c>
+      <c r="B10">
+        <v>63</v>
+      </c>
+      <c r="C10">
+        <v>41727</v>
+      </c>
+      <c r="D10">
+        <v>167582</v>
+      </c>
+      <c r="E10">
+        <v>4.6793460845947273E-2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
+        <f t="shared" si="0"/>
+        <v>fully_num_70.txt</v>
+      </c>
+      <c r="B11">
+        <v>70</v>
+      </c>
+      <c r="C11">
+        <v>57225</v>
+      </c>
+      <c r="D11">
+        <v>229657</v>
+      </c>
+      <c r="E11">
+        <v>3.12495231628418E-2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
+        <f t="shared" si="0"/>
+        <v>fully_num_77.txt</v>
+      </c>
+      <c r="B12">
+        <v>77</v>
+      </c>
+      <c r="C12">
+        <v>76153</v>
+      </c>
+      <c r="D12">
+        <v>305472</v>
+      </c>
+      <c r="E12">
+        <v>0.1094710826873779</v>
+      </c>
+      <c r="F12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="str">
+        <f t="shared" si="0"/>
+        <v>fully_num_84.txt</v>
+      </c>
+      <c r="B13">
+        <v>84</v>
+      </c>
+      <c r="C13">
+        <v>98854</v>
+      </c>
+      <c r="D13">
+        <v>396301</v>
+      </c>
+      <c r="E13">
+        <v>6.6622734069824219E-2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="str">
+        <f t="shared" si="0"/>
+        <v>fully_num_91.txt</v>
+      </c>
+      <c r="B14">
+        <v>91</v>
+      </c>
+      <c r="C14">
+        <v>125671</v>
+      </c>
+      <c r="D14">
+        <v>503408</v>
+      </c>
+      <c r="E14">
+        <v>0.10425567626953119</v>
+      </c>
+      <c r="F14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="str">
+        <f t="shared" si="0"/>
+        <v>fully_num_98.txt</v>
+      </c>
+      <c r="B15">
+        <v>98</v>
+      </c>
+      <c r="C15">
+        <v>156947</v>
+      </c>
+      <c r="D15">
+        <v>628519</v>
+      </c>
+      <c r="E15">
+        <v>0.12416815757751461</v>
+      </c>
+      <c r="F15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="str">
+        <f t="shared" si="0"/>
+        <v>fully_num_105.txt</v>
+      </c>
+      <c r="B16">
+        <v>105</v>
+      </c>
+      <c r="C16">
+        <v>193025</v>
+      </c>
+      <c r="D16">
+        <v>772695</v>
+      </c>
+      <c r="E16">
+        <v>0.12966156005859381</v>
+      </c>
+      <c r="F16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="str">
+        <f t="shared" si="0"/>
+        <v>fully_num_112.txt</v>
+      </c>
+      <c r="B17">
+        <v>112</v>
+      </c>
+      <c r="C17">
+        <v>234248</v>
+      </c>
+      <c r="D17">
+        <v>937106</v>
+      </c>
+      <c r="E17">
+        <v>0.2453770637512207</v>
+      </c>
+      <c r="F17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="str">
+        <f t="shared" si="0"/>
+        <v>fully_num_119.txt</v>
+      </c>
+      <c r="B18">
+        <v>119</v>
+      </c>
+      <c r="C18">
+        <v>280959</v>
+      </c>
+      <c r="D18">
+        <v>1124624</v>
+      </c>
+      <c r="E18">
+        <v>0.41666054725646973</v>
+      </c>
+      <c r="F18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="str">
+        <f t="shared" si="0"/>
+        <v>fully_num_126.txt</v>
+      </c>
+      <c r="B19">
+        <v>126</v>
+      </c>
+      <c r="C19">
+        <v>333501</v>
+      </c>
+      <c r="D19">
+        <v>1334210</v>
+      </c>
+      <c r="E19">
+        <v>0.26571774482727051</v>
+      </c>
+      <c r="F19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F19">
+    <sortCondition ref="B2:B19"/>
+  </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{731E6F1E-A154-4B05-B755-A3DFAB877842}">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
         <v>7</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
       <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2">
         <v>63</v>
       </c>
-      <c r="C2">
-        <v>251</v>
-      </c>
       <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
+        <v>256</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
         <v>14</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>469</v>
       </c>
-      <c r="C3">
-        <v>1905</v>
-      </c>
       <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
+        <v>1915</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
         <v>21</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>1561</v>
       </c>
-      <c r="C4">
-        <v>6326</v>
-      </c>
       <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
+        <v>6357</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
         <v>28</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>3682</v>
       </c>
-      <c r="C5">
-        <v>14889</v>
-      </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
+        <v>14709</v>
+      </c>
+      <c r="E5">
+        <v>1.0008811950683589E-3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
         <v>35</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>7175</v>
       </c>
-      <c r="C6">
-        <v>28907</v>
-      </c>
       <c r="D6">
-        <v>1.563715934753418E-2</v>
-      </c>
-      <c r="E6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
+        <v>28752</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
         <v>42</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>12383</v>
       </c>
-      <c r="C7">
-        <v>49900</v>
-      </c>
       <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8">
+        <v>49725</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
         <v>49</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>19649</v>
       </c>
-      <c r="C8">
-        <v>79066</v>
-      </c>
       <c r="D8">
-        <v>1.555228233337402E-2</v>
-      </c>
-      <c r="E8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9">
+        <v>78403</v>
+      </c>
+      <c r="E8">
+        <v>2.2178411483764648E-2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
         <v>56</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>29316</v>
       </c>
-      <c r="C9">
-        <v>117756</v>
-      </c>
       <c r="D9">
-        <v>1.5642404556274411E-2</v>
-      </c>
-      <c r="E9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10">
+        <v>117083</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
         <v>63</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>41727</v>
       </c>
-      <c r="C10">
-        <v>167582</v>
-      </c>
       <c r="D10">
-        <v>4.6793460845947273E-2</v>
-      </c>
-      <c r="E10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11">
+        <v>166179</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
         <v>70</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>57225</v>
       </c>
-      <c r="C11">
-        <v>229657</v>
-      </c>
       <c r="D11">
-        <v>3.12495231628418E-2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12">
+        <v>229211</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
         <v>77</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>76153</v>
       </c>
-      <c r="C12">
-        <v>305472</v>
-      </c>
       <c r="D12">
-        <v>0.1094710826873779</v>
-      </c>
-      <c r="E12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13">
+        <v>302805</v>
+      </c>
+      <c r="E12">
+        <v>4.1995763778686523E-2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
         <v>84</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>98854</v>
       </c>
-      <c r="C13">
-        <v>396301</v>
-      </c>
       <c r="D13">
-        <v>6.6622734069824219E-2</v>
-      </c>
-      <c r="E13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14">
+        <v>392566</v>
+      </c>
+      <c r="E13">
+        <v>9.6539735794067383E-2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
         <v>91</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>125671</v>
       </c>
-      <c r="C14">
-        <v>503408</v>
-      </c>
       <c r="D14">
-        <v>0.10425567626953119</v>
-      </c>
-      <c r="E14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15">
+        <v>499551</v>
+      </c>
+      <c r="E14">
+        <v>8.1966638565063477E-2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
         <v>98</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>156947</v>
       </c>
-      <c r="C15">
-        <v>628519</v>
-      </c>
       <c r="D15">
-        <v>0.12416815757751461</v>
-      </c>
-      <c r="E15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16">
+        <v>625063</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16">
         <v>105</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>193025</v>
       </c>
-      <c r="C16">
-        <v>772695</v>
-      </c>
       <c r="D16">
-        <v>0.12966156005859381</v>
-      </c>
-      <c r="E16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17">
+        <v>765811</v>
+      </c>
+      <c r="E16">
+        <v>0.2532496452331543</v>
+      </c>
+      <c r="F16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17">
         <v>112</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>234248</v>
       </c>
-      <c r="C17">
-        <v>937106</v>
-      </c>
       <c r="D17">
-        <v>0.2453770637512207</v>
-      </c>
-      <c r="E17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18">
+        <v>931722</v>
+      </c>
+      <c r="E17">
+        <v>1.010656356811523E-3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18">
         <v>119</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>280959</v>
       </c>
-      <c r="C18">
-        <v>1124624</v>
-      </c>
       <c r="D18">
-        <v>0.41666054725646973</v>
-      </c>
-      <c r="E18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19">
+        <v>1118226</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19">
         <v>126</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>333501</v>
       </c>
-      <c r="C19">
-        <v>1334210</v>
-      </c>
       <c r="D19">
-        <v>0.26571774482727051</v>
-      </c>
-      <c r="E19" t="s">
+        <v>1326251</v>
+      </c>
+      <c r="E19">
+        <v>0.54551839828491211</v>
+      </c>
+      <c r="F19" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E19">
-    <sortCondition ref="A2:A19"/>
-  </sortState>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/sat_results.xlsx
+++ b/sat_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University_materials\KLTN\SolvingTCPC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8BE2EC-4C70-40C1-BFBB-8DEDACCE4AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5361DC09-D2C3-450A-B9F3-CA953F2D0A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fully" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="26">
   <si>
     <t>num_students</t>
   </si>
@@ -55,12 +55,6 @@
   </si>
   <si>
     <t>filename</t>
-  </si>
-  <si>
-    <t>avg_time</t>
-  </si>
-  <si>
-    <t>solution_found</t>
   </si>
   <si>
     <t>max_num_7.txt</t>
@@ -488,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F19"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -913,8 +907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{731E6F1E-A154-4B05-B755-A3DFAB877842}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -940,15 +934,15 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>7</v>
@@ -963,12 +957,12 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>14</v>
@@ -983,12 +977,12 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>21</v>
@@ -1003,12 +997,12 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>28</v>
@@ -1028,7 +1022,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>35</v>
@@ -1043,12 +1037,12 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>42</v>
@@ -1063,12 +1057,12 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>49</v>
@@ -1088,7 +1082,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>56</v>
@@ -1103,12 +1097,12 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>63</v>
@@ -1123,12 +1117,12 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>70</v>
@@ -1143,12 +1137,12 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12">
         <v>77</v>
@@ -1168,7 +1162,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B13">
         <v>84</v>
@@ -1188,7 +1182,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <v>91</v>
@@ -1208,7 +1202,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>98</v>
@@ -1223,12 +1217,12 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B16">
         <v>105</v>
@@ -1248,7 +1242,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>112</v>
@@ -1263,12 +1257,12 @@
         <v>1.010656356811523E-3</v>
       </c>
       <c r="F17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>119</v>
@@ -1283,12 +1277,12 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>126</v>

--- a/sat_results.xlsx
+++ b/sat_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University_materials\KLTN\SolvingTCPC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5361DC09-D2C3-450A-B9F3-CA953F2D0A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C6AEC96-412D-4AAB-843C-AB5593D83AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fully" sheetId="1" r:id="rId1"/>
@@ -57,61 +57,61 @@
     <t>filename</t>
   </si>
   <si>
-    <t>max_num_7.txt</t>
-  </si>
-  <si>
     <t>UNSAT</t>
   </si>
   <si>
-    <t>max_num_14.txt</t>
-  </si>
-  <si>
-    <t>max_num_21.txt</t>
-  </si>
-  <si>
-    <t>max_num_28.txt</t>
-  </si>
-  <si>
-    <t>max_num_35.txt</t>
-  </si>
-  <si>
-    <t>max_num_42.txt</t>
-  </si>
-  <si>
-    <t>max_num_49.txt</t>
-  </si>
-  <si>
-    <t>max_num_56.txt</t>
-  </si>
-  <si>
-    <t>max_num_63.txt</t>
-  </si>
-  <si>
-    <t>max_num_70.txt</t>
-  </si>
-  <si>
-    <t>max_num_77.txt</t>
-  </si>
-  <si>
-    <t>max_num_84.txt</t>
-  </si>
-  <si>
-    <t>max_num_91.txt</t>
-  </si>
-  <si>
-    <t>max_num_98.txt</t>
-  </si>
-  <si>
-    <t>max_num_119.txt</t>
-  </si>
-  <si>
-    <t>max_num_126.txt</t>
-  </si>
-  <si>
-    <t>max_num_105.txt</t>
-  </si>
-  <si>
-    <t>max_num_112.txt</t>
+    <t>max_7.txt</t>
+  </si>
+  <si>
+    <t>max_14.txt</t>
+  </si>
+  <si>
+    <t>max_21.txt</t>
+  </si>
+  <si>
+    <t>max_28.txt</t>
+  </si>
+  <si>
+    <t>max_35.txt</t>
+  </si>
+  <si>
+    <t>max_42.txt</t>
+  </si>
+  <si>
+    <t>max_49.txt</t>
+  </si>
+  <si>
+    <t>max_56.txt</t>
+  </si>
+  <si>
+    <t>max_63.txt</t>
+  </si>
+  <si>
+    <t>max_70.txt</t>
+  </si>
+  <si>
+    <t>max_77.txt</t>
+  </si>
+  <si>
+    <t>max_84.txt</t>
+  </si>
+  <si>
+    <t>max_91.txt</t>
+  </si>
+  <si>
+    <t>max_98.txt</t>
+  </si>
+  <si>
+    <t>max_105.txt</t>
+  </si>
+  <si>
+    <t>max_112.txt</t>
+  </si>
+  <si>
+    <t>max_119.txt</t>
+  </si>
+  <si>
+    <t>max_126.txt</t>
   </si>
 </sst>
 </file>
@@ -482,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -518,8 +518,8 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
-        <f>CONCATENATE("fully_num_", (ROW(A1)-1)*7 + 7, ".txt")</f>
-        <v>fully_num_7.txt</v>
+        <f>CONCATENATE("fully_", (ROW(A1)-1)*7 + 7, ".txt")</f>
+        <v>fully_7.txt</v>
       </c>
       <c r="B2">
         <v>7</v>
@@ -539,8 +539,8 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
-        <f t="shared" ref="A3:A19" si="0">CONCATENATE("fully_num_", (ROW(A2)-1)*7 + 7, ".txt")</f>
-        <v>fully_num_14.txt</v>
+        <f>CONCATENATE("fully_", (ROW(A2)-1)*7 + 7, ".txt")</f>
+        <v>fully_14.txt</v>
       </c>
       <c r="B3">
         <v>14</v>
@@ -560,8 +560,8 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
-        <f t="shared" si="0"/>
-        <v>fully_num_21.txt</v>
+        <f>CONCATENATE("fully_", (ROW(A3)-1)*7 + 7, ".txt")</f>
+        <v>fully_21.txt</v>
       </c>
       <c r="B4">
         <v>21</v>
@@ -581,8 +581,8 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
-        <f t="shared" si="0"/>
-        <v>fully_num_28.txt</v>
+        <f>CONCATENATE("fully_", (ROW(A4)-1)*7 + 7, ".txt")</f>
+        <v>fully_28.txt</v>
       </c>
       <c r="B5">
         <v>28</v>
@@ -602,8 +602,8 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
-        <f t="shared" si="0"/>
-        <v>fully_num_35.txt</v>
+        <f>CONCATENATE("fully_", (ROW(A5)-1)*7 + 7, ".txt")</f>
+        <v>fully_35.txt</v>
       </c>
       <c r="B6">
         <v>35</v>
@@ -623,8 +623,8 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
-        <f t="shared" si="0"/>
-        <v>fully_num_42.txt</v>
+        <f>CONCATENATE("fully_", (ROW(A6)-1)*7 + 7, ".txt")</f>
+        <v>fully_42.txt</v>
       </c>
       <c r="B7">
         <v>42</v>
@@ -644,8 +644,8 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
-        <f t="shared" si="0"/>
-        <v>fully_num_49.txt</v>
+        <f>CONCATENATE("fully_", (ROW(A7)-1)*7 + 7, ".txt")</f>
+        <v>fully_49.txt</v>
       </c>
       <c r="B8">
         <v>49</v>
@@ -665,8 +665,8 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
-        <f t="shared" si="0"/>
-        <v>fully_num_56.txt</v>
+        <f>CONCATENATE("fully_", (ROW(A8)-1)*7 + 7, ".txt")</f>
+        <v>fully_56.txt</v>
       </c>
       <c r="B9">
         <v>56</v>
@@ -686,8 +686,8 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
-        <f t="shared" si="0"/>
-        <v>fully_num_63.txt</v>
+        <f>CONCATENATE("fully_", (ROW(A9)-1)*7 + 7, ".txt")</f>
+        <v>fully_63.txt</v>
       </c>
       <c r="B10">
         <v>63</v>
@@ -707,8 +707,8 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
-        <f t="shared" si="0"/>
-        <v>fully_num_70.txt</v>
+        <f>CONCATENATE("fully_", (ROW(A10)-1)*7 + 7, ".txt")</f>
+        <v>fully_70.txt</v>
       </c>
       <c r="B11">
         <v>70</v>
@@ -728,8 +728,8 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
-        <f t="shared" si="0"/>
-        <v>fully_num_77.txt</v>
+        <f>CONCATENATE("fully_", (ROW(A11)-1)*7 + 7, ".txt")</f>
+        <v>fully_77.txt</v>
       </c>
       <c r="B12">
         <v>77</v>
@@ -749,8 +749,8 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
-        <f t="shared" si="0"/>
-        <v>fully_num_84.txt</v>
+        <f>CONCATENATE("fully_", (ROW(A12)-1)*7 + 7, ".txt")</f>
+        <v>fully_84.txt</v>
       </c>
       <c r="B13">
         <v>84</v>
@@ -770,8 +770,8 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
-        <f t="shared" si="0"/>
-        <v>fully_num_91.txt</v>
+        <f>CONCATENATE("fully_", (ROW(A13)-1)*7 + 7, ".txt")</f>
+        <v>fully_91.txt</v>
       </c>
       <c r="B14">
         <v>91</v>
@@ -791,8 +791,8 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
-        <f t="shared" si="0"/>
-        <v>fully_num_98.txt</v>
+        <f>CONCATENATE("fully_", (ROW(A14)-1)*7 + 7, ".txt")</f>
+        <v>fully_98.txt</v>
       </c>
       <c r="B15">
         <v>98</v>
@@ -812,8 +812,8 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
-        <f t="shared" si="0"/>
-        <v>fully_num_105.txt</v>
+        <f>CONCATENATE("fully_", (ROW(A15)-1)*7 + 7, ".txt")</f>
+        <v>fully_105.txt</v>
       </c>
       <c r="B16">
         <v>105</v>
@@ -833,8 +833,8 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
-        <f t="shared" si="0"/>
-        <v>fully_num_112.txt</v>
+        <f>CONCATENATE("fully_", (ROW(A16)-1)*7 + 7, ".txt")</f>
+        <v>fully_112.txt</v>
       </c>
       <c r="B17">
         <v>112</v>
@@ -854,8 +854,8 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
-        <f t="shared" si="0"/>
-        <v>fully_num_119.txt</v>
+        <f>CONCATENATE("fully_", (ROW(A17)-1)*7 + 7, ".txt")</f>
+        <v>fully_119.txt</v>
       </c>
       <c r="B18">
         <v>119</v>
@@ -875,8 +875,8 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
-        <f t="shared" si="0"/>
-        <v>fully_num_126.txt</v>
+        <f>CONCATENATE("fully_", (ROW(A18)-1)*7 + 7, ".txt")</f>
+        <v>fully_126.txt</v>
       </c>
       <c r="B19">
         <v>126</v>
@@ -907,8 +907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{731E6F1E-A154-4B05-B755-A3DFAB877842}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -942,7 +942,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>7</v>
@@ -957,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -997,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1037,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1097,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1137,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -1217,12 +1217,12 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16">
         <v>105</v>
@@ -1242,7 +1242,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>112</v>
@@ -1257,12 +1257,12 @@
         <v>1.010656356811523E-3</v>
       </c>
       <c r="F17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>119</v>
@@ -1277,12 +1277,12 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B19">
         <v>126</v>
